--- a/vaccination/sql_scheme.xlsx
+++ b/vaccination/sql_scheme.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATsareva\Documents\python_for_data\vaccination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tsareva\Documents\GitHub\python_for_data\vaccination\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11232"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>Users</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>uid</t>
+  </si>
+  <si>
+    <t>name for unexisted user</t>
   </si>
 </sst>
 </file>
@@ -239,12 +242,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,49 +528,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -599,7 +602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -631,7 +634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -669,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -707,7 +710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -727,7 +730,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -750,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -772,15 +775,15 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -789,7 +792,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G9" t="s">
@@ -808,8 +811,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -818,12 +821,12 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="K10" s="1" t="s">
         <v>39</v>
       </c>
@@ -837,8 +840,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -872,8 +875,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -907,8 +910,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -938,12 +941,12 @@
       <c r="M13">
         <v>8</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
@@ -962,8 +965,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
@@ -982,8 +985,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1002,8 +1005,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
@@ -1013,15 +1016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1035,13 +1038,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1154,19 +1157,30 @@
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
